--- a/Angular4環境構築.xlsx
+++ b/Angular4環境構築.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="インストール" sheetId="1" r:id="rId1"/>
+    <sheet name="Hellword" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>https://nodejs.org/en/download/</t>
   </si>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.Angular CLIのインストール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>２－１．CLIの依頼node-sassの設定</t>
     <rPh sb="8" eb="10">
       <t>イライ</t>
@@ -235,6 +231,92 @@
   </si>
   <si>
     <t>ng -v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※できなければ、再インストール</t>
+    <rPh sb="8" eb="9">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npm uninstall -g angular-cli @angular/cli</t>
+  </si>
+  <si>
+    <t>npm cache clean</t>
+  </si>
+  <si>
+    <t>npm install -g @angular/cli@latest</t>
+  </si>
+  <si>
+    <t>2.Angular CLIのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.WorkSpace作成</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD D:/Angular</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd D:/Angular/workspace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.PJ作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ng new hello-world</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD hello-world</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ng serve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//サーバ起動</t>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3．テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザに下記のアドレスを入力し、Enterキーを押してください。</t>
+    <rPh sb="5" eb="7">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost:4200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//ポート：4200</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -734,94 +816,114 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>22</v>
+      <c r="A25" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="E33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
         <v>35</v>
-      </c>
-      <c r="H39" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" t="s">
         <v>39</v>
       </c>
-      <c r="H43" t="s">
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -836,12 +938,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Angular4環境構築.xlsx
+++ b/Angular4環境構築.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="インストール" sheetId="1" r:id="rId1"/>
     <sheet name="Hellword" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="入門" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="137">
   <si>
     <t>https://nodejs.org/en/download/</t>
   </si>
@@ -319,12 +320,3567 @@
     <t>//ポート：4200</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>https://angular.cn/guide/quickstart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>１．架构概</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>览</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>或者 TypeScript ），来构建客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用的框架。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成図</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>①Angular 是一个用 HTML 和 JavaScript 或者一个可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成 JavaScript 的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">言（例如 Dart </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②Module</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每个 Angular </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用至少有一个模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（根模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>习惯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上命名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AppModule。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">declarations </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>declarations 的子集，可用于其它模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件模板。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>声明本模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视图类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。Angular 有三种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视图类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件、指令和管道。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>本模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>声明的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件模板需要的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所在的其它模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>providers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建者，并加入到全局服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列表中，可用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用任何部分。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bootstrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用的主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件），它是所有其它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的宿主。只有根模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>才能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置bootstrap属性。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>控制屏幕上的一小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>区域，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>称之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>当用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用中漫游</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>， Angular 会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建、更新和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">件。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用可以通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生命周期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件生命周期的各个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点上插入自己的操作，例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Droid Sans Mono"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ngOnInit()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④模板</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件的自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的模板来定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>义组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。模板以 HTML 形式存在，告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Angular 如何渲染</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤元数据</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>元数据告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Angular 如何</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Component</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>selector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器，它告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Angular 在父</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HTML 中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找&lt;hero-list&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建并插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>templateUrl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>providers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件所需服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注入提供商数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>⑥数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件 HTML 模板的模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>组件 HTML 模板</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定在父</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件与子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件的通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讯</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦指令 (directive)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Angular 模板是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的。当 Angular 渲染它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它会根据指令提供的操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DOM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转换</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>⑧服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>范畴，包括：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、函数，或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用所需的特性。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>⑨依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注入</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>“依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注入”是提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例的一种方式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还负责处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所需的全部依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例，并且添加到容器中，然后把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Angular。 当所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求的服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都被解析完并返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，Angular 会以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>些服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>注入器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了一个服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例的容器，存放着以前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例。 如果所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求的服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例不在容器中，注入器就会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建一个服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">件的构造函数。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就是依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注入 。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注册提供商</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>把提供商添加到根模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，以便在任何地方都使用服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的同一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①　app.module.ts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在@Component元数据中的providers属性中把它注册在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②　**.component.ts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>※把它注册在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件的每一个新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例都会有一个服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お勧め</t>
+    <rPh sb="1" eb="2">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>⑩ Angular 特性和服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>生命周期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路由器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>用 Angular 的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库让组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>起来，而不需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或 CSS 有深入的了解。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事件文档会告诉你如何使用组件和服务触发支持发布和订阅的事件。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>通过基于 HTML 的验证和脏检</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机制支持复杂的数据输入场景。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通过 HTTP 客户端，可以与服务器通讯，以获得数据、保存数据和触发服务端动作。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>通过实现生命周期钩子接口，可以切入组件生命中的几个关键点：从创建到销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在模板中使用管道转换成用于显示的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户体验。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在应用程序客户端的页面间导航，并且不离开浏览器。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用 Angular 测试平台，在你的应用部件与 Angular 框架交互时进行单元测试。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TSイベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバとの通信</t>
+    <rPh sb="5" eb="7">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーマット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.生命周期</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钩</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>每个接口都有唯一的一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子方法，它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的名字是由接口名再加上ng前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构成的。比如，OnInit接口的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子方法叫做ngOnInit</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,21 +3922,160 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Droid Sans Mono"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -393,7 +4088,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +4101,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -414,6 +4151,256 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="overview"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1076325"/>
+          <a:ext cx="6667500" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="数据绑定"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9134475"/>
+          <a:ext cx="2095500" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3" descr="数据绑定"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2724150" y="9305925"/>
+          <a:ext cx="3409950" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4" descr="父/子绑定"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="114300" y="11982450"/>
+          <a:ext cx="3409950" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5" descr="服务"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15773400"/>
+          <a:ext cx="4562475" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1" descr="Us"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="238125"/>
+          <a:ext cx="1905000" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,7 +4690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -1011,14 +4998,1637 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BJ122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="O129" sqref="O129"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62">
+      <c r="A30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="11"/>
+      <c r="BB30" s="11"/>
+      <c r="BC30" s="11"/>
+      <c r="BD30" s="11"/>
+      <c r="BE30" s="11"/>
+      <c r="BF30" s="11"/>
+      <c r="BG30" s="11"/>
+      <c r="BH30" s="11"/>
+      <c r="BI30" s="11"/>
+      <c r="BJ30" s="12"/>
+    </row>
+    <row r="31" spans="1:62">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" s="7"/>
+      <c r="BC31" s="7"/>
+      <c r="BD31" s="7"/>
+      <c r="BE31" s="7"/>
+      <c r="BF31" s="7"/>
+      <c r="BG31" s="7"/>
+      <c r="BH31" s="7"/>
+      <c r="BI31" s="7"/>
+      <c r="BJ31" s="8"/>
+    </row>
+    <row r="32" spans="1:62">
+      <c r="A32" s="5">
+        <v>2</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7"/>
+      <c r="BC32" s="7"/>
+      <c r="BD32" s="7"/>
+      <c r="BE32" s="7"/>
+      <c r="BF32" s="7"/>
+      <c r="BG32" s="7"/>
+      <c r="BH32" s="7"/>
+      <c r="BI32" s="7"/>
+      <c r="BJ32" s="8"/>
+    </row>
+    <row r="33" spans="1:62">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+      <c r="AW33" s="7"/>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="7"/>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="7"/>
+      <c r="BC33" s="7"/>
+      <c r="BD33" s="7"/>
+      <c r="BE33" s="7"/>
+      <c r="BF33" s="7"/>
+      <c r="BG33" s="7"/>
+      <c r="BH33" s="7"/>
+      <c r="BI33" s="7"/>
+      <c r="BJ33" s="8"/>
+    </row>
+    <row r="34" spans="1:62">
+      <c r="A34" s="5">
+        <v>4</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="7"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" s="7"/>
+      <c r="BC34" s="7"/>
+      <c r="BD34" s="7"/>
+      <c r="BE34" s="7"/>
+      <c r="BF34" s="7"/>
+      <c r="BG34" s="7"/>
+      <c r="BH34" s="7"/>
+      <c r="BI34" s="7"/>
+      <c r="BJ34" s="8"/>
+    </row>
+    <row r="35" spans="1:62">
+      <c r="A35" s="5">
+        <v>5</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="7"/>
+      <c r="AT35" s="7"/>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="7"/>
+      <c r="AW35" s="7"/>
+      <c r="AX35" s="7"/>
+      <c r="AY35" s="7"/>
+      <c r="AZ35" s="7"/>
+      <c r="BA35" s="7"/>
+      <c r="BB35" s="7"/>
+      <c r="BC35" s="7"/>
+      <c r="BD35" s="7"/>
+      <c r="BE35" s="7"/>
+      <c r="BF35" s="7"/>
+      <c r="BG35" s="7"/>
+      <c r="BH35" s="7"/>
+      <c r="BI35" s="7"/>
+      <c r="BJ35" s="8"/>
+    </row>
+    <row r="37" spans="1:62">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:62">
+      <c r="A38" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:62">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:62">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:62">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62">
+      <c r="A47" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62">
+      <c r="A48" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="11"/>
+      <c r="AZ48" s="11"/>
+      <c r="BA48" s="11"/>
+      <c r="BB48" s="11"/>
+      <c r="BC48" s="11"/>
+      <c r="BD48" s="11"/>
+      <c r="BE48" s="11"/>
+      <c r="BF48" s="11"/>
+      <c r="BG48" s="11"/>
+      <c r="BH48" s="11"/>
+      <c r="BI48" s="11"/>
+      <c r="BJ48" s="12"/>
+    </row>
+    <row r="49" spans="1:62">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7"/>
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7"/>
+      <c r="AW49" s="7"/>
+      <c r="AX49" s="7"/>
+      <c r="AY49" s="7"/>
+      <c r="AZ49" s="7"/>
+      <c r="BA49" s="7"/>
+      <c r="BB49" s="7"/>
+      <c r="BC49" s="7"/>
+      <c r="BD49" s="7"/>
+      <c r="BE49" s="7"/>
+      <c r="BF49" s="7"/>
+      <c r="BG49" s="7"/>
+      <c r="BH49" s="7"/>
+      <c r="BI49" s="7"/>
+      <c r="BJ49" s="8"/>
+    </row>
+    <row r="50" spans="1:62">
+      <c r="A50" s="5">
+        <v>2</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7"/>
+      <c r="AZ50" s="7"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7"/>
+      <c r="BC50" s="7"/>
+      <c r="BD50" s="7"/>
+      <c r="BE50" s="7"/>
+      <c r="BF50" s="7"/>
+      <c r="BG50" s="7"/>
+      <c r="BH50" s="7"/>
+      <c r="BI50" s="7"/>
+      <c r="BJ50" s="8"/>
+    </row>
+    <row r="51" spans="1:62">
+      <c r="A51" s="5">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+      <c r="AP51" s="7"/>
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="7"/>
+      <c r="AS51" s="7"/>
+      <c r="AT51" s="7"/>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="7"/>
+      <c r="AW51" s="7"/>
+      <c r="AX51" s="7"/>
+      <c r="AY51" s="7"/>
+      <c r="AZ51" s="7"/>
+      <c r="BA51" s="7"/>
+      <c r="BB51" s="7"/>
+      <c r="BC51" s="7"/>
+      <c r="BD51" s="7"/>
+      <c r="BE51" s="7"/>
+      <c r="BF51" s="7"/>
+      <c r="BG51" s="7"/>
+      <c r="BH51" s="7"/>
+      <c r="BI51" s="7"/>
+      <c r="BJ51" s="8"/>
+    </row>
+    <row r="52" spans="1:62">
+      <c r="A52" s="5">
+        <v>4</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="7"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="7"/>
+      <c r="AW52" s="7"/>
+      <c r="AX52" s="7"/>
+      <c r="AY52" s="7"/>
+      <c r="AZ52" s="7"/>
+      <c r="BA52" s="7"/>
+      <c r="BB52" s="7"/>
+      <c r="BC52" s="7"/>
+      <c r="BD52" s="7"/>
+      <c r="BE52" s="7"/>
+      <c r="BF52" s="7"/>
+      <c r="BG52" s="7"/>
+      <c r="BH52" s="7"/>
+      <c r="BI52" s="7"/>
+      <c r="BJ52" s="8"/>
+    </row>
+    <row r="54" spans="1:62">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="O107" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="C111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:62">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:62">
+      <c r="A114" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="11"/>
+      <c r="U114" s="11"/>
+      <c r="V114" s="11"/>
+      <c r="W114" s="11"/>
+      <c r="X114" s="11"/>
+      <c r="Y114" s="11"/>
+      <c r="Z114" s="11"/>
+      <c r="AA114" s="11"/>
+      <c r="AB114" s="11"/>
+      <c r="AC114" s="11"/>
+      <c r="AD114" s="11"/>
+      <c r="AE114" s="11"/>
+      <c r="AF114" s="11"/>
+      <c r="AG114" s="11"/>
+      <c r="AH114" s="11"/>
+      <c r="AI114" s="11"/>
+      <c r="AJ114" s="11"/>
+      <c r="AK114" s="11"/>
+      <c r="AL114" s="11"/>
+      <c r="AM114" s="11"/>
+      <c r="AN114" s="11"/>
+      <c r="AO114" s="11"/>
+      <c r="AP114" s="11"/>
+      <c r="AQ114" s="11"/>
+      <c r="AR114" s="11"/>
+      <c r="AS114" s="11"/>
+      <c r="AT114" s="11"/>
+      <c r="AU114" s="11"/>
+      <c r="AV114" s="11"/>
+      <c r="AW114" s="11"/>
+      <c r="AX114" s="11"/>
+      <c r="AY114" s="11"/>
+      <c r="AZ114" s="12"/>
+      <c r="BA114" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB114" s="11"/>
+      <c r="BC114" s="11"/>
+      <c r="BD114" s="11"/>
+      <c r="BE114" s="11"/>
+      <c r="BF114" s="11"/>
+      <c r="BG114" s="11"/>
+      <c r="BH114" s="11"/>
+      <c r="BI114" s="11"/>
+      <c r="BJ114" s="12"/>
+    </row>
+    <row r="115" spans="1:62">
+      <c r="A115" s="5">
+        <v>1</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
+      <c r="S115" s="7"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="7"/>
+      <c r="AA115" s="7"/>
+      <c r="AB115" s="7"/>
+      <c r="AC115" s="7"/>
+      <c r="AD115" s="7"/>
+      <c r="AE115" s="7"/>
+      <c r="AF115" s="7"/>
+      <c r="AG115" s="7"/>
+      <c r="AH115" s="7"/>
+      <c r="AI115" s="7"/>
+      <c r="AJ115" s="7"/>
+      <c r="AK115" s="7"/>
+      <c r="AL115" s="7"/>
+      <c r="AM115" s="7"/>
+      <c r="AN115" s="7"/>
+      <c r="AO115" s="7"/>
+      <c r="AP115" s="7"/>
+      <c r="AQ115" s="7"/>
+      <c r="AR115" s="7"/>
+      <c r="AS115" s="7"/>
+      <c r="AT115" s="7"/>
+      <c r="AU115" s="7"/>
+      <c r="AV115" s="7"/>
+      <c r="AW115" s="7"/>
+      <c r="AX115" s="7"/>
+      <c r="AY115" s="7"/>
+      <c r="AZ115" s="8"/>
+      <c r="BA115" s="7"/>
+      <c r="BB115" s="7"/>
+      <c r="BC115" s="7"/>
+      <c r="BD115" s="7"/>
+      <c r="BE115" s="7"/>
+      <c r="BF115" s="7"/>
+      <c r="BG115" s="7"/>
+      <c r="BH115" s="7"/>
+      <c r="BI115" s="7"/>
+      <c r="BJ115" s="8"/>
+    </row>
+    <row r="116" spans="1:62">
+      <c r="A116" s="5">
+        <v>2</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
+      <c r="W116" s="7"/>
+      <c r="X116" s="7"/>
+      <c r="Y116" s="7"/>
+      <c r="Z116" s="7"/>
+      <c r="AA116" s="7"/>
+      <c r="AB116" s="7"/>
+      <c r="AC116" s="7"/>
+      <c r="AD116" s="7"/>
+      <c r="AE116" s="7"/>
+      <c r="AF116" s="7"/>
+      <c r="AG116" s="7"/>
+      <c r="AH116" s="7"/>
+      <c r="AI116" s="7"/>
+      <c r="AJ116" s="7"/>
+      <c r="AK116" s="7"/>
+      <c r="AL116" s="7"/>
+      <c r="AM116" s="7"/>
+      <c r="AN116" s="7"/>
+      <c r="AO116" s="7"/>
+      <c r="AP116" s="7"/>
+      <c r="AQ116" s="7"/>
+      <c r="AR116" s="7"/>
+      <c r="AS116" s="7"/>
+      <c r="AT116" s="7"/>
+      <c r="AU116" s="7"/>
+      <c r="AV116" s="7"/>
+      <c r="AW116" s="7"/>
+      <c r="AX116" s="7"/>
+      <c r="AY116" s="7"/>
+      <c r="AZ116" s="8"/>
+      <c r="BA116" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB116" s="7"/>
+      <c r="BC116" s="7"/>
+      <c r="BD116" s="7"/>
+      <c r="BE116" s="7"/>
+      <c r="BF116" s="7"/>
+      <c r="BG116" s="7"/>
+      <c r="BH116" s="7"/>
+      <c r="BI116" s="7"/>
+      <c r="BJ116" s="8"/>
+    </row>
+    <row r="117" spans="1:62">
+      <c r="A117" s="5">
+        <v>3</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="7"/>
+      <c r="AA117" s="7"/>
+      <c r="AB117" s="7"/>
+      <c r="AC117" s="7"/>
+      <c r="AD117" s="7"/>
+      <c r="AE117" s="7"/>
+      <c r="AF117" s="7"/>
+      <c r="AG117" s="7"/>
+      <c r="AH117" s="7"/>
+      <c r="AI117" s="7"/>
+      <c r="AJ117" s="7"/>
+      <c r="AK117" s="7"/>
+      <c r="AL117" s="7"/>
+      <c r="AM117" s="7"/>
+      <c r="AN117" s="7"/>
+      <c r="AO117" s="7"/>
+      <c r="AP117" s="7"/>
+      <c r="AQ117" s="7"/>
+      <c r="AR117" s="7"/>
+      <c r="AS117" s="7"/>
+      <c r="AT117" s="7"/>
+      <c r="AU117" s="7"/>
+      <c r="AV117" s="7"/>
+      <c r="AW117" s="7"/>
+      <c r="AX117" s="7"/>
+      <c r="AY117" s="7"/>
+      <c r="AZ117" s="8"/>
+      <c r="BA117" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB117" s="7"/>
+      <c r="BC117" s="7"/>
+      <c r="BD117" s="7"/>
+      <c r="BE117" s="7"/>
+      <c r="BF117" s="7"/>
+      <c r="BG117" s="7"/>
+      <c r="BH117" s="7"/>
+      <c r="BI117" s="7"/>
+      <c r="BJ117" s="8"/>
+    </row>
+    <row r="118" spans="1:62">
+      <c r="A118" s="5">
+        <v>4</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7"/>
+      <c r="W118" s="7"/>
+      <c r="X118" s="7"/>
+      <c r="Y118" s="7"/>
+      <c r="Z118" s="7"/>
+      <c r="AA118" s="7"/>
+      <c r="AB118" s="7"/>
+      <c r="AC118" s="7"/>
+      <c r="AD118" s="7"/>
+      <c r="AE118" s="7"/>
+      <c r="AF118" s="7"/>
+      <c r="AG118" s="7"/>
+      <c r="AH118" s="7"/>
+      <c r="AI118" s="7"/>
+      <c r="AJ118" s="7"/>
+      <c r="AK118" s="7"/>
+      <c r="AL118" s="7"/>
+      <c r="AM118" s="7"/>
+      <c r="AN118" s="7"/>
+      <c r="AO118" s="7"/>
+      <c r="AP118" s="7"/>
+      <c r="AQ118" s="7"/>
+      <c r="AR118" s="7"/>
+      <c r="AS118" s="7"/>
+      <c r="AT118" s="7"/>
+      <c r="AU118" s="7"/>
+      <c r="AV118" s="7"/>
+      <c r="AW118" s="7"/>
+      <c r="AX118" s="7"/>
+      <c r="AY118" s="7"/>
+      <c r="AZ118" s="8"/>
+      <c r="BA118" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BB118" s="7"/>
+      <c r="BC118" s="7"/>
+      <c r="BD118" s="7"/>
+      <c r="BE118" s="7"/>
+      <c r="BF118" s="7"/>
+      <c r="BG118" s="7"/>
+      <c r="BH118" s="7"/>
+      <c r="BI118" s="7"/>
+      <c r="BJ118" s="8"/>
+    </row>
+    <row r="119" spans="1:62">
+      <c r="A119" s="5">
+        <v>5</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="7"/>
+      <c r="AA119" s="7"/>
+      <c r="AB119" s="7"/>
+      <c r="AC119" s="7"/>
+      <c r="AD119" s="7"/>
+      <c r="AE119" s="7"/>
+      <c r="AF119" s="7"/>
+      <c r="AG119" s="7"/>
+      <c r="AH119" s="7"/>
+      <c r="AI119" s="7"/>
+      <c r="AJ119" s="7"/>
+      <c r="AK119" s="7"/>
+      <c r="AL119" s="7"/>
+      <c r="AM119" s="7"/>
+      <c r="AN119" s="7"/>
+      <c r="AO119" s="7"/>
+      <c r="AP119" s="7"/>
+      <c r="AQ119" s="7"/>
+      <c r="AR119" s="7"/>
+      <c r="AS119" s="7"/>
+      <c r="AT119" s="7"/>
+      <c r="AU119" s="7"/>
+      <c r="AV119" s="7"/>
+      <c r="AW119" s="7"/>
+      <c r="AX119" s="7"/>
+      <c r="AY119" s="7"/>
+      <c r="AZ119" s="8"/>
+      <c r="BA119" s="7"/>
+      <c r="BB119" s="7"/>
+      <c r="BC119" s="7"/>
+      <c r="BD119" s="7"/>
+      <c r="BE119" s="7"/>
+      <c r="BF119" s="7"/>
+      <c r="BG119" s="7"/>
+      <c r="BH119" s="7"/>
+      <c r="BI119" s="7"/>
+      <c r="BJ119" s="8"/>
+    </row>
+    <row r="120" spans="1:62">
+      <c r="A120" s="5">
+        <v>6</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="7"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
+      <c r="V120" s="7"/>
+      <c r="W120" s="7"/>
+      <c r="X120" s="7"/>
+      <c r="Y120" s="7"/>
+      <c r="Z120" s="7"/>
+      <c r="AA120" s="7"/>
+      <c r="AB120" s="7"/>
+      <c r="AC120" s="7"/>
+      <c r="AD120" s="7"/>
+      <c r="AE120" s="7"/>
+      <c r="AF120" s="7"/>
+      <c r="AG120" s="7"/>
+      <c r="AH120" s="7"/>
+      <c r="AI120" s="7"/>
+      <c r="AJ120" s="7"/>
+      <c r="AK120" s="7"/>
+      <c r="AL120" s="7"/>
+      <c r="AM120" s="7"/>
+      <c r="AN120" s="7"/>
+      <c r="AO120" s="7"/>
+      <c r="AP120" s="7"/>
+      <c r="AQ120" s="7"/>
+      <c r="AR120" s="7"/>
+      <c r="AS120" s="7"/>
+      <c r="AT120" s="7"/>
+      <c r="AU120" s="7"/>
+      <c r="AV120" s="7"/>
+      <c r="AW120" s="7"/>
+      <c r="AX120" s="7"/>
+      <c r="AY120" s="7"/>
+      <c r="AZ120" s="8"/>
+      <c r="BA120" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB120" s="7"/>
+      <c r="BC120" s="7"/>
+      <c r="BD120" s="7"/>
+      <c r="BE120" s="7"/>
+      <c r="BF120" s="7"/>
+      <c r="BG120" s="7"/>
+      <c r="BH120" s="7"/>
+      <c r="BI120" s="7"/>
+      <c r="BJ120" s="8"/>
+    </row>
+    <row r="121" spans="1:62">
+      <c r="A121" s="5">
+        <v>7</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="7"/>
+      <c r="AA121" s="7"/>
+      <c r="AB121" s="7"/>
+      <c r="AC121" s="7"/>
+      <c r="AD121" s="7"/>
+      <c r="AE121" s="7"/>
+      <c r="AF121" s="7"/>
+      <c r="AG121" s="7"/>
+      <c r="AH121" s="7"/>
+      <c r="AI121" s="7"/>
+      <c r="AJ121" s="7"/>
+      <c r="AK121" s="7"/>
+      <c r="AL121" s="7"/>
+      <c r="AM121" s="7"/>
+      <c r="AN121" s="7"/>
+      <c r="AO121" s="7"/>
+      <c r="AP121" s="7"/>
+      <c r="AQ121" s="7"/>
+      <c r="AR121" s="7"/>
+      <c r="AS121" s="7"/>
+      <c r="AT121" s="7"/>
+      <c r="AU121" s="7"/>
+      <c r="AV121" s="7"/>
+      <c r="AW121" s="7"/>
+      <c r="AX121" s="7"/>
+      <c r="AY121" s="7"/>
+      <c r="AZ121" s="8"/>
+      <c r="BA121" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB121" s="7"/>
+      <c r="BC121" s="7"/>
+      <c r="BD121" s="7"/>
+      <c r="BE121" s="7"/>
+      <c r="BF121" s="7"/>
+      <c r="BG121" s="7"/>
+      <c r="BH121" s="7"/>
+      <c r="BI121" s="7"/>
+      <c r="BJ121" s="8"/>
+    </row>
+    <row r="122" spans="1:62">
+      <c r="A122" s="5">
+        <v>8</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
+      <c r="W122" s="7"/>
+      <c r="X122" s="7"/>
+      <c r="Y122" s="7"/>
+      <c r="Z122" s="7"/>
+      <c r="AA122" s="7"/>
+      <c r="AB122" s="7"/>
+      <c r="AC122" s="7"/>
+      <c r="AD122" s="7"/>
+      <c r="AE122" s="7"/>
+      <c r="AF122" s="7"/>
+      <c r="AG122" s="7"/>
+      <c r="AH122" s="7"/>
+      <c r="AI122" s="7"/>
+      <c r="AJ122" s="7"/>
+      <c r="AK122" s="7"/>
+      <c r="AL122" s="7"/>
+      <c r="AM122" s="7"/>
+      <c r="AN122" s="7"/>
+      <c r="AO122" s="7"/>
+      <c r="AP122" s="7"/>
+      <c r="AQ122" s="7"/>
+      <c r="AR122" s="7"/>
+      <c r="AS122" s="7"/>
+      <c r="AT122" s="7"/>
+      <c r="AU122" s="7"/>
+      <c r="AV122" s="7"/>
+      <c r="AW122" s="7"/>
+      <c r="AX122" s="7"/>
+      <c r="AY122" s="7"/>
+      <c r="AZ122" s="8"/>
+      <c r="BA122" s="7"/>
+      <c r="BB122" s="7"/>
+      <c r="BC122" s="7"/>
+      <c r="BD122" s="7"/>
+      <c r="BE122" s="7"/>
+      <c r="BF122" s="7"/>
+      <c r="BG122" s="7"/>
+      <c r="BH122" s="7"/>
+      <c r="BI122" s="7"/>
+      <c r="BJ122" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="S2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>